--- a/biology/Botanique/Tabouret_de_jardinage/Tabouret_de_jardinage.xlsx
+++ b/biology/Botanique/Tabouret_de_jardinage/Tabouret_de_jardinage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un tabouret de jardinage ou banc de jardinage ou agenouilloir ou garden stool en anglais permet de pratiquer plus facilement le jardinage. Avec des coussins rembourrés, les modèles les plus courants sont des petits bancs ou des tabourets réversibles qui permettent de s'agenouiller ou de s'asseoir confortablement à faible hauteur pour effectuer des travaux courants[1],[2],
-[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un tabouret de jardinage ou banc de jardinage ou agenouilloir ou garden stool en anglais permet de pratiquer plus facilement le jardinage. Avec des coussins rembourrés, les modèles les plus courants sont des petits bancs ou des tabourets réversibles qui permettent de s'agenouiller ou de s'asseoir confortablement à faible hauteur pour effectuer des travaux courants
+.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreux modèles existent et sont proposés aux jardiniers. Ils permettent d'avoir une meilleure posture pour jardiner :
 Ils peuvent être en métal, leur cadre est en acier robuste ou, plus légers, en plastique.
@@ -522,7 +536,7 @@
 Les modèles réversible peuvent être utilisés en position assise ou en retournés pour pouvoir s'agenouiller. Cette position étant essentielles pour de nombreux travaux de jardinage.
 Différents modèles métalliques sont pliables.
 Ils sont facilement transportables.
-Pour les personnes souffrant d'arthrose ils sont particulièrement utiles[4].</t>
+Pour les personnes souffrant d'arthrose ils sont particulièrement utiles.</t>
         </is>
       </c>
     </row>
@@ -550,7 +564,9 @@
           <t>Autres ustensiles protège genoux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour travailler à genoux au niveau du sol il est aussi possible d'utiliser :
 genouillère de jardinage
